--- a/테이블 정의서.xlsx
+++ b/테이블 정의서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="109">
   <si>
     <t>PK</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -370,14 +370,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>~에게</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>~</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>별명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -431,6 +423,42 @@
   </si>
   <si>
     <t>참가 아아디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"kakao", "local"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1": "보통", "2": "탈퇴"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가한 유저 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1": "보통", "2": "차단", "3": "삭제"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1": "보통", "2": "삭제"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1": "개인", "2": "단체"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1": "보통", "2": "탈퇴"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1": "보통", "2": "삭제"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1": "메시지", "2": "파일", "3": "입장", "4": "퇴장", "5": "탈퇴"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -801,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -812,7 +840,7 @@
     <col min="3" max="3" width="16.59765625" customWidth="1"/>
     <col min="4" max="4" width="8.796875" style="1"/>
     <col min="5" max="5" width="24.59765625" customWidth="1"/>
-    <col min="6" max="6" width="25.796875" customWidth="1"/>
+    <col min="6" max="6" width="51.796875" customWidth="1"/>
     <col min="7" max="7" width="25.09765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -866,6 +894,9 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
       <c r="G3" t="s">
         <v>78</v>
       </c>
@@ -922,6 +953,9 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
       <c r="G7" t="s">
         <v>82</v>
       </c>
@@ -988,7 +1022,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -1008,7 +1042,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1022,7 +1056,7 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1035,8 +1069,11 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1081,7 +1118,7 @@
         <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -1095,7 +1132,7 @@
         <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -1108,8 +1145,11 @@
       <c r="C21" t="s">
         <v>46</v>
       </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
       <c r="G21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -1122,8 +1162,11 @@
       <c r="C22" t="s">
         <v>23</v>
       </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -1168,7 +1211,7 @@
         <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -1208,7 +1251,7 @@
         <v>58</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -1221,8 +1264,11 @@
       <c r="C29" t="s">
         <v>23</v>
       </c>
+      <c r="F29" t="s">
+        <v>106</v>
+      </c>
       <c r="G29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -1267,7 +1313,7 @@
         <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -1287,7 +1333,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -1307,7 +1353,7 @@
         <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -1321,7 +1367,7 @@
         <v>66</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -1334,6 +1380,9 @@
       <c r="C37" t="s">
         <v>23</v>
       </c>
+      <c r="F37" t="s">
+        <v>107</v>
+      </c>
       <c r="G37" t="s">
         <v>82</v>
       </c>
@@ -1348,8 +1397,11 @@
       <c r="C38" t="s">
         <v>65</v>
       </c>
+      <c r="F38" t="s">
+        <v>108</v>
+      </c>
       <c r="G38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -1397,7 +1449,7 @@
         <v>68</v>
       </c>
       <c r="G42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -1417,7 +1469,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
